--- a/Accuracy.xlsx
+++ b/Accuracy.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>Marsh Tit</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Overall accuracy per folder (multiple != OK)</t>
+  </si>
+  <si>
+    <t>Correct %</t>
+  </si>
+  <si>
+    <t>Multiple %</t>
+  </si>
+  <si>
+    <t>Correct/(correct+indef) per file</t>
+  </si>
+  <si>
+    <t>Indef/(correct+indef) per file</t>
+  </si>
+  <si>
+    <t>Correct/(correct+indef) per folder</t>
+  </si>
+  <si>
+    <t>Indef/(correct+indef) per folder</t>
   </si>
 </sst>
 </file>
@@ -452,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,6 +1556,272 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <f>B4/(B4+B6)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12:AG12" si="9">C4/(C4+C6)</f>
+        <v>0.92982456140350878</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.98113207547169812</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.69565217391304346</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.92957746478873238</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.97468354430379744</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.97826086956521741</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.9375</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="AD12" s="2">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <f>B6/(B6+B4)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:AG13" si="10">C6/(C6+C4)</f>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="10"/>
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="10"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="10"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="10"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="10"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="10"/>
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="10"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="10"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="10"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
@@ -1572,6 +1856,42 @@
       <c r="B18" s="2">
         <f>AVERAGE(B11:AG11)</f>
         <v>0.70785368274680882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <f>SUM(B4:AG4)/(SUM(B4:AG4)+SUM(B6:AG6))</f>
+        <v>0.93189368770764125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <f>1-B19</f>
+        <v>6.8106312292358751E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <f>AVERAGE(B12:AG12)</f>
+        <v>0.90092028221163456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <f>AVERAGE(B13:AG13)</f>
+        <v>9.9079717788365607E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Accuracy.xlsx
+++ b/Accuracy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14160"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Marsh Tit</t>
   </si>
@@ -124,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,15 +147,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +508,7 @@
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -581,8 +608,18 @@
       <c r="AG1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" s="8"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -682,8 +719,18 @@
       <c r="AG2" s="2">
         <v>1</v>
       </c>
+      <c r="AH2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="7"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,8 +830,18 @@
       <c r="AG3" s="2">
         <v>23</v>
       </c>
+      <c r="AH3" s="2">
+        <v>130</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>132</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="7"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -884,8 +941,18 @@
       <c r="AG4" s="2">
         <v>20</v>
       </c>
+      <c r="AH4" s="2">
+        <v>104</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>126</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -985,8 +1052,18 @@
       <c r="AG5" s="2">
         <v>3</v>
       </c>
+      <c r="AH5" s="2">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="7"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1086,8 +1163,18 @@
       <c r="AG6" s="2">
         <v>0</v>
       </c>
+      <c r="AH6" s="2">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>27</v>
+      </c>
+      <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1121,8 +1208,11 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1254,8 +1344,20 @@
         <f>AG3-(AG4+AG5+AG6)</f>
         <v>0</v>
       </c>
+      <c r="AH8" s="2">
+        <f t="shared" ref="AH8:AK8" si="3">AH3-(AH4+AH5+AH6)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1289,8 +1391,11 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1299,131 +1404,144 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:AA10" si="3">(C4+C6)/C3</f>
+        <f t="shared" ref="C10:AA10" si="4">(C4+C6)/C3</f>
         <v>0.96610169491525422</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.81538461538461537</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85185185185185186</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97520661157024791</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88073394495412849</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.48837209302325579</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52307692307692311</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70370370370370372</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38277511961722488</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18421052631578946</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4107142857142857</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.80681818181818177</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84946236559139787</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AA10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" ref="AB10:AF10" si="4">(AB4+AB6)/AB3</f>
+        <f t="shared" ref="AB10:AF10" si="5">(AB4+AB6)/AB3</f>
         <v>0.41935483870967744</v>
       </c>
       <c r="AC10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98305084745762716</v>
       </c>
       <c r="AD10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.967741935483871</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AF10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.96875</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" ref="AG10" si="5">(AG4+AG6)/AG3</f>
+        <f t="shared" ref="AG10:AK10" si="6">(AG4+AG6)/AG3</f>
         <v>0.86956521739130432</v>
       </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.89230769230769236</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.96969696969696972</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AK10" s="6"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1432,131 +1550,144 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:AA11" si="6">(C4)/C3</f>
+        <f t="shared" ref="C11:AA11" si="7">(C4)/C3</f>
         <v>0.89830508474576276</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97520661157024791</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87155963302752293</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48888888888888887</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.23255813953488372</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50769230769230766</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.62962962962962965</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.38277511961722488</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18421052631578946</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82795698924731187</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="W11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97826086956521741</v>
       </c>
       <c r="X11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AA11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" ref="AB11:AF11" si="7">(AB4)/AB3</f>
+        <f t="shared" ref="AB11:AF11" si="8">(AB4)/AB3</f>
         <v>0.35483870967741937</v>
       </c>
       <c r="AC11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.83050847457627119</v>
       </c>
       <c r="AD11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.72580645161290325</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AF11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96875</v>
       </c>
       <c r="AG11" s="2">
-        <f t="shared" ref="AG11" si="8">(AG4)/AG3</f>
+        <f t="shared" ref="AG11:AK11" si="9">(AG4)/AG3</f>
         <v>0.86956521739130432</v>
       </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="9"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="9"/>
+        <v>0.32608695652173914</v>
+      </c>
+      <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1565,131 +1696,144 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:AG12" si="9">C4/(C4+C6)</f>
+        <f t="shared" ref="C12:AG12" si="10">C4/(C4+C6)</f>
         <v>0.92982456140350878</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.98113207547169812</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97826086956521741</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.98958333333333337</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.81481481481481477</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97058823529411764</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.69565217391304346</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.92957746478873238</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97468354430379744</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.97826086956521741</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.9375</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84482758620689657</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" ref="AH12:AK12" si="11">AH4/(AH4+AH6)</f>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="AI12" s="2">
+        <f t="shared" si="11"/>
+        <v>0.984375</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f t="shared" si="11"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="AK12" s="6"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1698,146 +1842,159 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:AG13" si="10">C6/(C6+C4)</f>
+        <f t="shared" ref="C13:AG13" si="12">C6/(C6+C4)</f>
         <v>7.0175438596491224E-2</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8867924528301886E-2</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.18518518518518517</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.0422535211267609E-2</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5316455696202531E-2</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="W13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="X13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="AC13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.15517241379310345</v>
       </c>
       <c r="AD13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="AE13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" ref="AH13:AK13" si="13">AH6/(AH6+AH4)</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="AJ13" s="5">
+        <f t="shared" si="13"/>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="AK13" s="7"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2">
-        <f>(SUM(B4:AG4)+SUM(B6:AG6))/SUM(B3:AG3)</f>
-        <v>0.74597273853779433</v>
+        <f>(SUM(B4:AJ4)+SUM(B6:AJ6))/SUM(B3:AJ3)</f>
+        <v>0.77523413111342354</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <f>SUM(B4:AG4)/SUM(B3:AG3)</f>
-        <v>0.69516728624535318</v>
+        <f>SUM(B4:AJ4)/SUM(B3:AJ3)</f>
+        <v>0.71123829344432887</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1845,8 +2002,8 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <f>AVERAGE(B10:AG10)</f>
-        <v>0.77593904249231083</v>
+        <f>AVERAGE(B10:AJ10)</f>
+        <v>0.78871707142912795</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1854,8 +2011,8 @@
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <f>AVERAGE(B11:AG11)</f>
-        <v>0.70785368274680882</v>
+        <f>AVERAGE(B11:AJ11)</f>
+        <v>0.70662715025614498</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1863,8 +2020,8 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f>SUM(B4:AG4)/(SUM(B4:AG4)+SUM(B6:AG6))</f>
-        <v>0.93189368770764125</v>
+        <f>SUM(B4:AJ4)/(SUM(B4:AJ4)+SUM(B6:AJ6))</f>
+        <v>0.91744966442953024</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1873,7 +2030,7 @@
       </c>
       <c r="B20" s="2">
         <f>1-B19</f>
-        <v>6.8106312292358751E-2</v>
+        <v>8.2550335570469757E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1881,8 +2038,8 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <f>AVERAGE(B12:AG12)</f>
-        <v>0.90092028221163456</v>
+        <f>AVERAGE(B12:AJ12)</f>
+        <v>0.88764338891580274</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1890,8 +2047,8 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f>AVERAGE(B13:AG13)</f>
-        <v>9.9079717788365607E-2</v>
+        <f>AVERAGE(B13:AJ13)</f>
+        <v>0.11235661108419746</v>
       </c>
     </row>
   </sheetData>
